--- a/문서/자유수강권자 수강료 및 재료비 합계.xlsx
+++ b/문서/자유수강권자 수강료 및 재료비 합계.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
   <si>
     <t>강지석</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>FPQ</t>
+  </si>
+  <si>
+    <t>김민성</t>
   </si>
 </sst>
 </file>
@@ -619,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -709,16 +712,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F4" s="2">
-        <v>226540</v>
+        <v>150100</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>53</v>
@@ -735,13 +738,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2">
-        <v>96340</v>
+        <v>226540</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>53</v>
@@ -755,16 +758,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2">
-        <v>172470</v>
+        <v>96340</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>53</v>
@@ -781,13 +784,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2">
-        <v>86960</v>
+        <v>172470</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>53</v>
@@ -804,13 +807,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2">
-        <v>31280</v>
+        <v>86960</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>53</v>
@@ -824,16 +827,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="2">
-        <v>238590</v>
+        <v>31280</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>53</v>
@@ -850,13 +853,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="2">
-        <v>155380</v>
+        <v>238590</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>53</v>
@@ -873,13 +876,13 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2">
-        <v>56710</v>
+        <v>155380</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>53</v>
@@ -893,16 +896,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="2">
-        <v>44580</v>
+        <v>56710</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>53</v>
@@ -916,16 +919,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2">
-        <v>65060</v>
+        <v>44580</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>53</v>
@@ -942,13 +945,13 @@
         <v>6</v>
       </c>
       <c r="D14" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2">
-        <v>193320</v>
+        <v>65060</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>53</v>
@@ -959,22 +962,22 @@
         <v>2016</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F15" s="2">
-        <v>145800</v>
+        <v>193320</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -988,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
         <v>145800</v>
@@ -1011,16 +1014,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>154240</v>
+        <v>145800</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1034,16 +1037,16 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="F18" s="2">
-        <v>72880</v>
+        <v>154240</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1057,16 +1060,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2">
-        <v>83070</v>
+        <v>72880</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1077,19 +1080,19 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="F20" s="2">
-        <v>81270</v>
+        <v>83070</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1103,13 +1106,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="2">
-        <v>64820</v>
+        <v>81270</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>53</v>
@@ -1123,19 +1126,19 @@
         <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="F22" s="2">
-        <v>150100</v>
+        <v>64820</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1149,13 +1152,13 @@
         <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" s="2">
-        <v>127040</v>
+        <v>150100</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>55</v>
@@ -1172,13 +1175,13 @@
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="2">
-        <v>128810</v>
+        <v>127040</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>55</v>
@@ -1192,16 +1195,16 @@
         <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F25" s="2">
-        <v>185110</v>
+        <v>128810</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>55</v>
@@ -1218,13 +1221,13 @@
         <v>4</v>
       </c>
       <c r="D26" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="2">
-        <v>190600</v>
+        <v>185110</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>55</v>
@@ -1241,13 +1244,13 @@
         <v>4</v>
       </c>
       <c r="D27" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="2">
-        <v>114810</v>
+        <v>190600</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>55</v>
@@ -1261,16 +1264,16 @@
         <v>2</v>
       </c>
       <c r="C28" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="2">
-        <v>223440</v>
+        <v>114810</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>55</v>
@@ -1287,13 +1290,13 @@
         <v>5</v>
       </c>
       <c r="D29" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2">
-        <v>179100</v>
+        <v>223440</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>55</v>
@@ -1310,13 +1313,13 @@
         <v>5</v>
       </c>
       <c r="D30" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="2">
-        <v>71410</v>
+        <v>179100</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>55</v>
@@ -1333,13 +1336,13 @@
         <v>5</v>
       </c>
       <c r="D31" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" s="2">
-        <v>68340</v>
+        <v>71410</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>55</v>
@@ -1356,13 +1359,13 @@
         <v>5</v>
       </c>
       <c r="D32" s="1">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" s="2">
-        <v>214260</v>
+        <v>68340</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>55</v>
@@ -1373,19 +1376,19 @@
         <v>2016</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2">
-        <v>63310</v>
+        <v>214260</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>55</v>
@@ -1402,13 +1405,13 @@
         <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F34" s="2">
-        <v>180270</v>
+        <v>63310</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>55</v>
@@ -1425,13 +1428,13 @@
         <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" s="2">
-        <v>45770</v>
+        <v>180270</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>55</v>
@@ -1448,10 +1451,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="1">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36" s="2">
         <v>45770</v>
@@ -1468,16 +1471,16 @@
         <v>3</v>
       </c>
       <c r="C37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F37" s="2">
-        <v>114810</v>
+        <v>45770</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>55</v>
@@ -1491,16 +1494,16 @@
         <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F38" s="2">
-        <v>96350</v>
+        <v>114810</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>55</v>
@@ -1514,16 +1517,16 @@
         <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F39" s="2">
-        <v>185370</v>
+        <v>96350</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>55</v>
@@ -1540,13 +1543,13 @@
         <v>5</v>
       </c>
       <c r="D40" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="2">
-        <v>61520</v>
+        <v>185370</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>55</v>
@@ -1563,13 +1566,13 @@
         <v>5</v>
       </c>
       <c r="D41" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F41" s="2">
-        <v>112330</v>
+        <v>61520</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>55</v>
@@ -1586,13 +1589,13 @@
         <v>5</v>
       </c>
       <c r="D42" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F42" s="2">
-        <v>166440</v>
+        <v>112330</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>55</v>
@@ -1603,22 +1606,22 @@
         <v>2016</v>
       </c>
       <c r="B43" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="F43" s="2">
-        <v>39280</v>
+        <v>166440</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1632,16 +1635,16 @@
         <v>1</v>
       </c>
       <c r="D44" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="F44" s="2">
-        <v>46280</v>
+        <v>39280</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1655,13 +1658,13 @@
         <v>1</v>
       </c>
       <c r="D45" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F45" s="2">
-        <v>83050</v>
+        <v>46280</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>55</v>
@@ -1675,16 +1678,16 @@
         <v>4</v>
       </c>
       <c r="C46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F46" s="2">
-        <v>168680</v>
+        <v>83050</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>55</v>
@@ -1698,19 +1701,19 @@
         <v>4</v>
       </c>
       <c r="C47" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F47" s="2">
-        <v>122740</v>
+        <v>168680</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1724,16 +1727,16 @@
         <v>5</v>
       </c>
       <c r="D48" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F48" s="2">
-        <v>41170</v>
+        <v>122740</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1744,16 +1747,16 @@
         <v>4</v>
       </c>
       <c r="C49" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F49" s="2">
-        <v>104700</v>
+        <v>41170</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>55</v>
@@ -1764,19 +1767,19 @@
         <v>2016</v>
       </c>
       <c r="B50" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D50" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F50" s="2">
-        <v>54330</v>
+        <v>104700</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>55</v>
@@ -1790,16 +1793,16 @@
         <v>5</v>
       </c>
       <c r="C51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F51" s="2">
-        <v>46280</v>
+        <v>54330</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>55</v>
@@ -1816,13 +1819,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="1">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F52" s="2">
-        <v>84710</v>
+        <v>46280</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>55</v>
@@ -1836,16 +1839,16 @@
         <v>5</v>
       </c>
       <c r="C53" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F53" s="2">
-        <v>114230</v>
+        <v>84710</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>55</v>
@@ -1859,19 +1862,19 @@
         <v>5</v>
       </c>
       <c r="C54" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F54" s="2">
-        <v>64820</v>
+        <v>114230</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1885,16 +1888,16 @@
         <v>5</v>
       </c>
       <c r="D55" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F55" s="2">
-        <v>22170</v>
+        <v>64820</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1905,19 +1908,19 @@
         <v>5</v>
       </c>
       <c r="C56" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F56" s="2">
-        <v>56710</v>
+        <v>22170</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1931,13 +1934,13 @@
         <v>6</v>
       </c>
       <c r="D57" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2">
-        <v>147380</v>
+        <v>56710</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>53</v>
@@ -1954,16 +1957,16 @@
         <v>6</v>
       </c>
       <c r="D58" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2">
-        <v>46280</v>
+        <v>147380</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1977,13 +1980,13 @@
         <v>6</v>
       </c>
       <c r="D59" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F59" s="2">
-        <v>106230</v>
+        <v>46280</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>55</v>
@@ -2000,16 +2003,16 @@
         <v>6</v>
       </c>
       <c r="D60" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F60" s="2">
-        <v>81210</v>
+        <v>106230</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2017,22 +2020,22 @@
         <v>2016</v>
       </c>
       <c r="B61" s="1">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1">
         <v>6</v>
       </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
       <c r="D61" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2">
-        <v>85460</v>
+        <v>81210</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2043,19 +2046,19 @@
         <v>6</v>
       </c>
       <c r="C62" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="F62" s="2">
-        <v>59280</v>
+        <v>85460</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2066,19 +2069,19 @@
         <v>6</v>
       </c>
       <c r="C63" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2">
-        <v>46280</v>
+        <v>59280</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2089,16 +2092,16 @@
         <v>6</v>
       </c>
       <c r="C64" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F64" s="2">
-        <v>31280</v>
+        <v>46280</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>55</v>
@@ -2115,13 +2118,13 @@
         <v>4</v>
       </c>
       <c r="D65" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F65" s="2">
-        <v>64820</v>
+        <v>31280</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>55</v>
@@ -2138,13 +2141,13 @@
         <v>4</v>
       </c>
       <c r="D66" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F66" s="2">
-        <v>130700</v>
+        <v>64820</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>55</v>
@@ -2158,16 +2161,16 @@
         <v>6</v>
       </c>
       <c r="C67" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" s="2">
-        <v>81270</v>
+        <v>130700</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>55</v>
@@ -2184,13 +2187,13 @@
         <v>5</v>
       </c>
       <c r="D68" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" s="2">
-        <v>108590</v>
+        <v>81270</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>55</v>
@@ -2207,15 +2210,38 @@
         <v>5</v>
       </c>
       <c r="D69" s="1">
+        <v>12</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" s="2">
+        <v>108590</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B70" s="1">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1">
+        <v>5</v>
+      </c>
+      <c r="D70" s="1">
         <v>23</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F70" s="2">
         <v>45770</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>55</v>
       </c>
     </row>

--- a/문서/자유수강권자 수강료 및 재료비 합계.xlsx
+++ b/문서/자유수강권자 수강료 및 재료비 합계.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="20415" windowHeight="14085"/>
   </bookViews>
   <sheets>
-    <sheet name="3~4월" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="3~5월" sheetId="2" r:id="rId1"/>
+    <sheet name="금액순" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="79">
   <si>
     <t>강지석</t>
   </si>
@@ -625,7 +626,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -675,10 +676,10 @@
         <v>56</v>
       </c>
       <c r="F2" s="2">
-        <v>129880</v>
+        <v>187220</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -698,10 +699,10 @@
         <v>54</v>
       </c>
       <c r="F3" s="2">
-        <v>193260</v>
+        <v>285320</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -721,10 +722,10 @@
         <v>78</v>
       </c>
       <c r="F4" s="2">
-        <v>150100</v>
+        <v>219790</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -744,10 +745,10 @@
         <v>57</v>
       </c>
       <c r="F5" s="2">
-        <v>226540</v>
+        <v>295970</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -767,10 +768,10 @@
         <v>58</v>
       </c>
       <c r="F6" s="2">
-        <v>96340</v>
+        <v>138050</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -790,10 +791,10 @@
         <v>59</v>
       </c>
       <c r="F7" s="2">
-        <v>172470</v>
+        <v>268120</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -813,10 +814,10 @@
         <v>60</v>
       </c>
       <c r="F8" s="2">
-        <v>86960</v>
+        <v>130530</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -859,10 +860,10 @@
         <v>62</v>
       </c>
       <c r="F10" s="2">
-        <v>238590</v>
+        <v>312410</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -882,10 +883,10 @@
         <v>63</v>
       </c>
       <c r="F11" s="2">
-        <v>155380</v>
+        <v>221470</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -905,10 +906,10 @@
         <v>64</v>
       </c>
       <c r="F12" s="2">
-        <v>56710</v>
+        <v>89420</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -928,10 +929,10 @@
         <v>65</v>
       </c>
       <c r="F13" s="2">
-        <v>44580</v>
+        <v>61690</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -951,10 +952,10 @@
         <v>66</v>
       </c>
       <c r="F14" s="2">
-        <v>65060</v>
+        <v>90990</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -974,10 +975,10 @@
         <v>67</v>
       </c>
       <c r="F15" s="2">
-        <v>193320</v>
+        <v>290940</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1043,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="2">
-        <v>154240</v>
+        <v>208400</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>55</v>
@@ -1066,10 +1067,10 @@
         <v>68</v>
       </c>
       <c r="F19" s="2">
-        <v>72880</v>
+        <v>103120</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1112,10 +1113,10 @@
         <v>69</v>
       </c>
       <c r="F21" s="2">
-        <v>81270</v>
+        <v>117710</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1135,10 +1136,10 @@
         <v>70</v>
       </c>
       <c r="F22" s="2">
-        <v>64820</v>
+        <v>96230</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1158,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="2">
-        <v>150100</v>
+        <v>219790</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>55</v>
@@ -1181,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="2">
-        <v>127040</v>
+        <v>178980</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>55</v>
@@ -1204,7 +1205,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="2">
-        <v>128810</v>
+        <v>183740</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>55</v>
@@ -1227,7 +1228,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="2">
-        <v>185110</v>
+        <v>223540</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>55</v>
@@ -1250,7 +1251,7 @@
         <v>8</v>
       </c>
       <c r="F27" s="2">
-        <v>190600</v>
+        <v>282490</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>55</v>
@@ -1273,7 +1274,7 @@
         <v>9</v>
       </c>
       <c r="F28" s="2">
-        <v>114810</v>
+        <v>169740</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>55</v>
@@ -1296,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="2">
-        <v>223440</v>
+        <v>293920</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>55</v>
@@ -1319,7 +1320,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="2">
-        <v>179100</v>
+        <v>272810</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>55</v>
@@ -1342,7 +1343,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="2">
-        <v>71410</v>
+        <v>100830</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>55</v>
@@ -1365,7 +1366,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="2">
-        <v>68340</v>
+        <v>104110</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>55</v>
@@ -1388,7 +1389,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="2">
-        <v>214260</v>
+        <v>314620</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>55</v>
@@ -1411,7 +1412,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="2">
-        <v>63310</v>
+        <v>89230</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>55</v>
@@ -1434,7 +1435,7 @@
         <v>16</v>
       </c>
       <c r="F35" s="2">
-        <v>180270</v>
+        <v>267790</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>55</v>
@@ -1457,7 +1458,7 @@
         <v>17</v>
       </c>
       <c r="F36" s="2">
-        <v>45770</v>
+        <v>61270</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>55</v>
@@ -1480,7 +1481,7 @@
         <v>18</v>
       </c>
       <c r="F37" s="2">
-        <v>45770</v>
+        <v>61270</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>55</v>
@@ -1503,7 +1504,7 @@
         <v>19</v>
       </c>
       <c r="F38" s="2">
-        <v>114810</v>
+        <v>177740</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>55</v>
@@ -1526,7 +1527,7 @@
         <v>20</v>
       </c>
       <c r="F39" s="2">
-        <v>96350</v>
+        <v>152080</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>55</v>
@@ -1549,7 +1550,7 @@
         <v>21</v>
       </c>
       <c r="F40" s="2">
-        <v>185370</v>
+        <v>272120</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>55</v>
@@ -1572,7 +1573,7 @@
         <v>22</v>
       </c>
       <c r="F41" s="2">
-        <v>61520</v>
+        <v>85710</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>55</v>
@@ -1595,7 +1596,7 @@
         <v>23</v>
       </c>
       <c r="F42" s="2">
-        <v>112330</v>
+        <v>164180</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>55</v>
@@ -1618,7 +1619,7 @@
         <v>24</v>
       </c>
       <c r="F43" s="2">
-        <v>166440</v>
+        <v>254840</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>55</v>
@@ -1641,10 +1642,10 @@
         <v>71</v>
       </c>
       <c r="F44" s="2">
-        <v>39280</v>
+        <v>76180</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1664,7 +1665,7 @@
         <v>25</v>
       </c>
       <c r="F45" s="2">
-        <v>46280</v>
+        <v>62060</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>55</v>
@@ -1687,7 +1688,7 @@
         <v>26</v>
       </c>
       <c r="F46" s="2">
-        <v>83050</v>
+        <v>117450</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>55</v>
@@ -1710,7 +1711,7 @@
         <v>27</v>
       </c>
       <c r="F47" s="2">
-        <v>168680</v>
+        <v>254100</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>55</v>
@@ -1756,7 +1757,7 @@
         <v>29</v>
       </c>
       <c r="F49" s="2">
-        <v>41170</v>
+        <v>62180</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>55</v>
@@ -1779,7 +1780,7 @@
         <v>30</v>
       </c>
       <c r="F50" s="2">
-        <v>104700</v>
+        <v>139360</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>55</v>
@@ -1825,7 +1826,7 @@
         <v>32</v>
       </c>
       <c r="F52" s="2">
-        <v>46280</v>
+        <v>62060</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>55</v>
@@ -1848,7 +1849,7 @@
         <v>33</v>
       </c>
       <c r="F53" s="2">
-        <v>84710</v>
+        <v>115460</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>55</v>
@@ -1871,7 +1872,7 @@
         <v>34</v>
       </c>
       <c r="F54" s="2">
-        <v>114230</v>
+        <v>165300</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>55</v>
@@ -1940,10 +1941,10 @@
         <v>72</v>
       </c>
       <c r="F57" s="2">
-        <v>56710</v>
+        <v>89420</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1986,7 +1987,7 @@
         <v>37</v>
       </c>
       <c r="F59" s="2">
-        <v>46280</v>
+        <v>62060</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>55</v>
@@ -2009,7 +2010,7 @@
         <v>38</v>
       </c>
       <c r="F60" s="2">
-        <v>106230</v>
+        <v>153170</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>55</v>
@@ -2032,10 +2033,10 @@
         <v>74</v>
       </c>
       <c r="F61" s="2">
-        <v>81210</v>
+        <v>121680</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2055,7 +2056,7 @@
         <v>39</v>
       </c>
       <c r="F62" s="2">
-        <v>85460</v>
+        <v>118610</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>55</v>
@@ -2101,7 +2102,7 @@
         <v>40</v>
       </c>
       <c r="F64" s="2">
-        <v>46280</v>
+        <v>62060</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>55</v>
@@ -2124,7 +2125,7 @@
         <v>41</v>
       </c>
       <c r="F65" s="2">
-        <v>31280</v>
+        <v>47060</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>55</v>
@@ -2147,7 +2148,7 @@
         <v>42</v>
       </c>
       <c r="F66" s="2">
-        <v>64820</v>
+        <v>96230</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>55</v>
@@ -2170,7 +2171,7 @@
         <v>43</v>
       </c>
       <c r="F67" s="2">
-        <v>130700</v>
+        <v>178530</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>55</v>
@@ -2193,7 +2194,7 @@
         <v>44</v>
       </c>
       <c r="F68" s="2">
-        <v>81270</v>
+        <v>117710</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>55</v>
@@ -2216,7 +2217,7 @@
         <v>45</v>
       </c>
       <c r="F69" s="2">
-        <v>108590</v>
+        <v>145360</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>55</v>
@@ -2239,7 +2240,7 @@
         <v>46</v>
       </c>
       <c r="F70" s="2">
-        <v>45770</v>
+        <v>61270</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>55</v>
@@ -2253,6 +2254,1638 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="15.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2">
+        <v>314620</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2">
+        <v>312410</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="2">
+        <v>295970</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>293920</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="2">
+        <v>290940</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="2">
+        <v>285320</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2">
+        <v>282490</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>272810</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2">
+        <v>272120</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2">
+        <v>268120</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2">
+        <v>267790</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2">
+        <v>254840</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2">
+        <v>254100</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2">
+        <v>223540</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="2">
+        <v>221470</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="2">
+        <v>219790</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2">
+        <v>219790</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>208400</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="2">
+        <v>187220</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2">
+        <v>183740</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>178980</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="2">
+        <v>178530</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="2">
+        <v>177740</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2">
+        <v>169740</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="2">
+        <v>165300</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="2">
+        <v>164180</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B28" s="1">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="2">
+        <v>153170</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="2">
+        <v>152080</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="2">
+        <v>147380</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>145800</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>145800</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B33" s="1">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="2">
+        <v>145360</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1">
+        <v>24</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="2">
+        <v>139360</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="2">
+        <v>138050</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="2">
+        <v>130530</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="2">
+        <v>122740</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1">
+        <v>16</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="2">
+        <v>121680</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B39" s="1">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="2">
+        <v>118610</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="2">
+        <v>117710</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B41" s="1">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="2">
+        <v>117710</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>14</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="2">
+        <v>117450</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>24</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="2">
+        <v>115460</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="2">
+        <v>104110</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>15</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="2">
+        <v>103120</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>14</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="2">
+        <v>100830</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>15</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="2">
+        <v>96230</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B48" s="1">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="2">
+        <v>96230</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="2">
+        <v>90990</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1">
+        <v>24</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="2">
+        <v>89420</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="2">
+        <v>89420</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="2">
+        <v>89230</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="2">
+        <v>85710</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>25</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="2">
+        <v>83070</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" s="2">
+        <v>76180</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="2">
+        <v>64820</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="2">
+        <v>62180</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>10</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="2">
+        <v>62060</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B59" s="1">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="2">
+        <v>62060</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B60" s="1">
+        <v>5</v>
+      </c>
+      <c r="C60" s="1">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="2">
+        <v>62060</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B61" s="1">
+        <v>6</v>
+      </c>
+      <c r="C61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="2">
+        <v>62060</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1">
+        <v>22</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="2">
+        <v>61690</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>12</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="2">
+        <v>61270</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>26</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="2">
+        <v>61270</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B65" s="1">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1">
+        <v>23</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="2">
+        <v>61270</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B66" s="1">
+        <v>6</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1">
+        <v>25</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="2">
+        <v>59280</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B67" s="1">
+        <v>5</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>21</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" s="2">
+        <v>54330</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B68" s="1">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1">
+        <v>4</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="2">
+        <v>47060</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1">
+        <v>22</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="2">
+        <v>31280</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B70" s="1">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1">
+        <v>5</v>
+      </c>
+      <c r="D70" s="1">
+        <v>20</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" s="2">
+        <v>22170</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
